--- a/[2분반]2013136093_이재영_마프_재료구매신청서(최종).xlsx
+++ b/[2분반]2013136093_이재영_마프_재료구매신청서(최종).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이재영\Desktop\source tree\2013136093\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136093\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,12 @@
 1660핀 불투명 
 (Solderless Breadboard 
 - 1660 Tie Point (ZY-204)) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 좀 더 큰걸로 
+있는데 이 크기 사용하는 이유 없으면 빼도 
+좋습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +241,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +261,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,15 +304,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,8 +352,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -970,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:E14" si="0">C11*D11</f>
+        <f t="shared" ref="E11:E13" si="0">C11*D11</f>
         <v>2200</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1237,25 +1269,28 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="12">
         <v>12100</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="12">
         <v>12100</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
